--- a/Will/Total DFM BOM.xlsx
+++ b/Will/Total DFM BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="230">
   <si>
     <t>Total BOM for FirePick Delta 2.0</t>
   </si>
@@ -46,6 +46,666 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>FPAN-M2-8L</t>
+  </si>
+  <si>
+    <t>FNUT-M5-HNKK5</t>
+  </si>
+  <si>
+    <t>EL-CAM-ELP-OV5640</t>
+  </si>
+  <si>
+    <t>8mm Shoulder Screw</t>
+  </si>
+  <si>
+    <t>FNUT-M3</t>
+  </si>
+  <si>
+    <t>DBS-0.375-10L-HEX</t>
+  </si>
+  <si>
+    <t>End Effector Simple</t>
+  </si>
+  <si>
+    <t>FBHCS-M5-10L</t>
+  </si>
+  <si>
+    <t>FNUT-M2</t>
+  </si>
+  <si>
+    <t>Lower Spring Socket Holder SLA</t>
+  </si>
+  <si>
+    <t>GT2 Belt</t>
+  </si>
+  <si>
+    <t>DB608</t>
+  </si>
+  <si>
+    <t>Delta Arm DFM</t>
+  </si>
+  <si>
+    <t>Top Plate DFM</t>
+  </si>
+  <si>
+    <t>FSHCSLP-M5-20L</t>
+  </si>
+  <si>
+    <t>EM-ST17</t>
+  </si>
+  <si>
+    <t>Motor mount and Bearing Block</t>
+  </si>
+  <si>
+    <t>FPAN-M3-10L</t>
+  </si>
+  <si>
+    <t>FSHCS-M3-35L</t>
+  </si>
+  <si>
+    <t>FPAN-M5-30L</t>
+  </si>
+  <si>
+    <t>FBHCS-M5-8L</t>
+  </si>
+  <si>
+    <t>DGP16T</t>
+  </si>
+  <si>
+    <t>FNUT-M6</t>
+  </si>
+  <si>
+    <t>FSHCS-M3-15L</t>
+  </si>
+  <si>
+    <t>3mm Dowel Pin</t>
+  </si>
+  <si>
+    <t>Rubber Foot</t>
+  </si>
+  <si>
+    <t>DRCF-TUBE-M6-250L</t>
+  </si>
+  <si>
+    <t>FSET-M3-4L</t>
+  </si>
+  <si>
+    <t>FNUT-M5</t>
+  </si>
+  <si>
+    <t>MSPRING02 - Delta arm tension springs</t>
+  </si>
+  <si>
+    <t>Syringe Holder Latch</t>
+  </si>
+  <si>
+    <t>3.2 Touchscreen LCD</t>
+  </si>
+  <si>
+    <t>Tray feeder - Mounting feet</t>
+  </si>
+  <si>
+    <t>Solid State Relay</t>
+  </si>
+  <si>
+    <t>ECAM03</t>
+  </si>
+  <si>
+    <t>Vacuum pump mount</t>
+  </si>
+  <si>
+    <t>Power Supply Housing</t>
+  </si>
+  <si>
+    <t>FBHCS-M5-6L</t>
+  </si>
+  <si>
+    <t>Bed Mount Upper</t>
+  </si>
+  <si>
+    <t>Servocity - 545612 Clamping Hub 5mm</t>
+  </si>
+  <si>
+    <t>Camera Block - Mount plate 1</t>
+  </si>
+  <si>
+    <t>EL-VISHAY-TCST2103</t>
+  </si>
+  <si>
+    <t>FFLT-M3-8L</t>
+  </si>
+  <si>
+    <t>Camera Block - Mount plate 2</t>
+  </si>
+  <si>
+    <t>FPAN-M3-25L</t>
+  </si>
+  <si>
+    <t>DTB-0.0625-0.1875</t>
+  </si>
+  <si>
+    <t>FPAN-M3-12L</t>
+  </si>
+  <si>
+    <t>Heating Element Simple</t>
+  </si>
+  <si>
+    <t>PCB holder - 6mm rods</t>
+  </si>
+  <si>
+    <t>EM-ST08-HOLLOW</t>
+  </si>
+  <si>
+    <t>5 mm Syringe</t>
+  </si>
+  <si>
+    <t>Juki Nozzle Adapter</t>
+  </si>
+  <si>
+    <t>FSHCS-M2-10L</t>
+  </si>
+  <si>
+    <t>EL-ADAFRUIT-NEORING-16</t>
+  </si>
+  <si>
+    <t>Camera Block - ECAM03 pcb</t>
+  </si>
+  <si>
+    <t>Heating Element Top Al Plate</t>
+  </si>
+  <si>
+    <t>Optical Interrupt</t>
+  </si>
+  <si>
+    <t>JHAC 01B3 Power Connector</t>
+  </si>
+  <si>
+    <t>Bed Mount Lower</t>
+  </si>
+  <si>
+    <t>FSHCS-M2-12L</t>
+  </si>
+  <si>
+    <t>EL-CAM-ELP-USB100W03M</t>
+  </si>
+  <si>
+    <t>VLT18AWG - Luer Lock tip - 18AWG</t>
+  </si>
+  <si>
+    <t>Tray feeder - 8mm - Bottom plate</t>
+  </si>
+  <si>
+    <t>Vacuum pump - DX512-2503-3700</t>
+  </si>
+  <si>
+    <t>PCB holder - Clamp</t>
+  </si>
+  <si>
+    <t>XE2020-550</t>
+  </si>
+  <si>
+    <t>SMT tape - 8mm - (100mm)</t>
+  </si>
+  <si>
+    <t>FPAN-M5-12L</t>
+  </si>
+  <si>
+    <t>Vibration mount - M3 x 10mmL</t>
+  </si>
+  <si>
+    <t>Tray feeder -12mm - Bottom plate</t>
+  </si>
+  <si>
+    <t>Tray feeder -12mm - Top plate</t>
+  </si>
+  <si>
+    <t>Opto Endstop Mount</t>
+  </si>
+  <si>
+    <t>Thumb Nut</t>
+  </si>
+  <si>
+    <t>FFLT-M3-5L</t>
+  </si>
+  <si>
+    <t>PCB holder - Thumb screws</t>
+  </si>
+  <si>
+    <t>Fastener - Plastic threaded 8mmL for 2mm hole</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>FWSH-M2</t>
+  </si>
+  <si>
+    <t>PCB holder - Corner pieces</t>
+  </si>
+  <si>
+    <t>Tray feeder -8mm - Top plate</t>
+  </si>
+  <si>
+    <t>Juki Nozzle 506</t>
+  </si>
+  <si>
+    <t>EFP01</t>
+  </si>
+  <si>
+    <t>M4 Sheet Metal Nut</t>
+  </si>
+  <si>
+    <t>Camera Block - Bottom plate</t>
+  </si>
+  <si>
+    <t>4.5ID 7.5 OD Oring</t>
+  </si>
+  <si>
+    <t>FSHCS-M4-10L</t>
+  </si>
+  <si>
+    <t>Camera Block - Mount plate 3</t>
+  </si>
+  <si>
+    <t>M5 Sheet Metal Nut</t>
+  </si>
+  <si>
+    <t>SMT tape - 12mm - 5050 (100mm)</t>
+  </si>
+  <si>
+    <t>Component Tray</t>
+  </si>
+  <si>
+    <t>Tray feeder -8mm - Middle plate</t>
+  </si>
+  <si>
+    <t>Camera Block -Top plate</t>
+  </si>
+  <si>
+    <t>EOPTO01 - Optical endstop board</t>
+  </si>
+  <si>
+    <t>FSHCS-M3-25L</t>
+  </si>
+  <si>
+    <t>FFLT-M4-45L</t>
+  </si>
+  <si>
+    <t>FPAN-M4-20L</t>
+  </si>
+  <si>
+    <t>5.5ID 1cs Oring</t>
+  </si>
+  <si>
+    <t>Tee</t>
+  </si>
+  <si>
+    <t>DTS-0.1875ID-0.3125OD-25L</t>
+  </si>
+  <si>
+    <t>Motor Mount V1.1</t>
+  </si>
+  <si>
+    <t>FPAN-M3-20L</t>
+  </si>
+  <si>
+    <t>Front Panel</t>
+  </si>
+  <si>
+    <t>Syringe Holder Clamp</t>
+  </si>
+  <si>
+    <t>Tray feeder -12mm - Middle plate</t>
+  </si>
+  <si>
+    <t>Window tint</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>90T GT2 Pulley</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>CNC Part</t>
+  </si>
+  <si>
+    <t>SLA Part</t>
+  </si>
+  <si>
+    <t>OTS Part</t>
+  </si>
+  <si>
+    <t>Laser Cut Part</t>
+  </si>
+  <si>
+    <t>Sheet Metal Part</t>
+  </si>
+  <si>
+    <t>Carousel Base</t>
+  </si>
+  <si>
+    <t>FFF Part</t>
+  </si>
+  <si>
+    <t>40mm Fan</t>
+  </si>
+  <si>
+    <t>Side Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6mm Aluminium rod stock, cut to length </t>
+  </si>
+  <si>
+    <t>Designed CNC adapter for NEMA to Juki Nozzle</t>
+  </si>
+  <si>
+    <t>Aluminium plate for heated bed</t>
+  </si>
+  <si>
+    <t>Al End effector, holds all tools</t>
+  </si>
+  <si>
+    <t>Al Delta Arm, mounted on 90T GT2 Pulley</t>
+  </si>
+  <si>
+    <t>Top plate, all delta mechanism components are mounted to this</t>
+  </si>
+  <si>
+    <t>Clamp for PCB holding, made from 20x15 bar Al</t>
+  </si>
+  <si>
+    <t>FFF Mounting Hub for carousel feeder.  Use for mounting baseplate to NEMA 008</t>
+  </si>
+  <si>
+    <t>Holds Optical endstops to the motor mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small spacing blocks for lifting cut strip feeders </t>
+  </si>
+  <si>
+    <t>Laser cut acrylic middle plate for mounting up-looking camera</t>
+  </si>
+  <si>
+    <t>Laser cut acrylic piece for strip feeder</t>
+  </si>
+  <si>
+    <t>Clear laser cut acrylic for mounting to front panel for LCD Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laser cut acrylic piece for mounting up-looking camera </t>
+  </si>
+  <si>
+    <t>Laser cut acrylic piece for holding component trays</t>
+  </si>
+  <si>
+    <t>Top side panels, have lots of hexagons for aesthetic effect</t>
+  </si>
+  <si>
+    <t>Lower portion of heated bed, mounts to frame extrusion</t>
+  </si>
+  <si>
+    <t>Top front panel with cutout for LCD Display and button</t>
+  </si>
+  <si>
+    <t>SLA Printed parts for the end of the carbon fiber arms, meshes with the ballstuds</t>
+  </si>
+  <si>
+    <t>SLA printed part for holding syringe to end effector</t>
+  </si>
+  <si>
+    <t>SLA trays for holding components on the carousel feeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper portion of heated bed, mounts to lower bed mount, holds heating elements </t>
+  </si>
+  <si>
+    <t>Custom Length GT2 Belt</t>
+  </si>
+  <si>
+    <t>608  Ball Bearings</t>
+  </si>
+  <si>
+    <t>Nema 17, used in Delta Mechanism and carousel feeder</t>
+  </si>
+  <si>
+    <t>Laser cut acrylic piece for holding  carousel NEMA 0017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Motor mount, mounts NEMA 0017 and shoulder screw </t>
+  </si>
+  <si>
+    <t>16 tooth GT2 pulley, mounted to NEMA 0017</t>
+  </si>
+  <si>
+    <t>90 tooth GT2 pulley, mounted to Delta Arm</t>
+  </si>
+  <si>
+    <t>Dowel pins for ensuring proper placement of motor mounts to top plate</t>
+  </si>
+  <si>
+    <t>Cast rubber feet for machine stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon fiber tubes for delta arms </t>
+  </si>
+  <si>
+    <t>Not actual part, spray paint for clear front panel to achieve blacked out look</t>
+  </si>
+  <si>
+    <t>Tubing for Vacuum Pump, Get metric dimensions</t>
+  </si>
+  <si>
+    <t>Push to fit T connector for end effector</t>
+  </si>
+  <si>
+    <t>5.5mm ID 1mm CS Oring</t>
+  </si>
+  <si>
+    <t>Delta arm tension springs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid state relay for heated bed </t>
+  </si>
+  <si>
+    <t>Machine metal plate for mounting vacuum pump to top plate</t>
+  </si>
+  <si>
+    <t>Power supply mounted in bottom of machine</t>
+  </si>
+  <si>
+    <t>Barbed connector for vacuum pump tubing</t>
+  </si>
+  <si>
+    <t>Heating element for heated bed</t>
+  </si>
+  <si>
+    <t>NEMA 008 hollow tube for component pickup and placement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syringe that holds solder paste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tip of syringe for solder paste dispense </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacuum Pump </t>
+  </si>
+  <si>
+    <t>20x20mm, 550mm long black extrusion</t>
+  </si>
+  <si>
+    <t>Any type of 8 mm SMT Tape</t>
+  </si>
+  <si>
+    <t>Any type of 12 mm SMT Tape</t>
+  </si>
+  <si>
+    <t>Vibration dampening rubber grommets with m3 thread</t>
+  </si>
+  <si>
+    <t>M2 8mmL Screw for plastic</t>
+  </si>
+  <si>
+    <t>M4 standoff posts that hold 6mm rod for PCB holder</t>
+  </si>
+  <si>
+    <t>40mm cooling fan to be mounted inside heated bed</t>
+  </si>
+  <si>
+    <t>Juki nozzle 506, we will need other types too</t>
+  </si>
+  <si>
+    <t>4.5mmID 1.5mmCS Oring</t>
+  </si>
+  <si>
+    <t>M3 10mmL Ballstuds</t>
+  </si>
+  <si>
+    <t>Up Looking Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD Display for front of machine </t>
+  </si>
+  <si>
+    <t>Uplooking camera board</t>
+  </si>
+  <si>
+    <t>Optical sensor</t>
+  </si>
+  <si>
+    <t>Ring light for camera</t>
+  </si>
+  <si>
+    <t>Camera Ring light PCB</t>
+  </si>
+  <si>
+    <t>Optical Sensor Board</t>
+  </si>
+  <si>
+    <t>Power connector for AC power connection</t>
+  </si>
+  <si>
+    <t>Down looking camera for end effector</t>
+  </si>
+  <si>
+    <t>Front panel display PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLA printed "flag" mounted to delta arm </t>
+  </si>
+  <si>
+    <t>Panhead m2 8l screws</t>
+  </si>
+  <si>
+    <t>M5 Extrusion nut</t>
+  </si>
+  <si>
+    <t>M8 Shoulder Screw 60mmL</t>
+  </si>
+  <si>
+    <t>M3 Nut</t>
+  </si>
+  <si>
+    <t>M2 nut</t>
+  </si>
+  <si>
+    <t>Socket head cap screw M5 20L</t>
+  </si>
+  <si>
+    <t>Panhead M3-10L</t>
+  </si>
+  <si>
+    <t>Socket head cap screw M3 35L</t>
+  </si>
+  <si>
+    <t>Panhead M5-30L</t>
+  </si>
+  <si>
+    <t>Buttonhead cap screw M5-10L</t>
+  </si>
+  <si>
+    <t>Buttonhead cap screw M5-8L</t>
+  </si>
+  <si>
+    <t>M6 Nut</t>
+  </si>
+  <si>
+    <t>Socket head cap screw M3-15L</t>
+  </si>
+  <si>
+    <t>M3-4L set screw</t>
+  </si>
+  <si>
+    <t>M5 Nut</t>
+  </si>
+  <si>
+    <t>Button head cap screw M5-6L</t>
+  </si>
+  <si>
+    <t>Flat head M3-8L</t>
+  </si>
+  <si>
+    <t>Pan head M3-25L</t>
+  </si>
+  <si>
+    <t>Panhead M3-12L</t>
+  </si>
+  <si>
+    <t>Socket head cap screw M2-10L</t>
+  </si>
+  <si>
+    <t>Socket head cap screw m2-12L</t>
+  </si>
+  <si>
+    <t>Pan head M5-12L</t>
+  </si>
+  <si>
+    <t>M3 Thumb Screw Nut</t>
+  </si>
+  <si>
+    <t>Flat head M3-5L</t>
+  </si>
+  <si>
+    <t>M5 Thumb Screws with threading</t>
+  </si>
+  <si>
+    <t>M2 Washer</t>
+  </si>
+  <si>
+    <t>PEM M4 Nut</t>
+  </si>
+  <si>
+    <t>Socket head cap screw M4-10L</t>
+  </si>
+  <si>
+    <t>PEM M5 Nut</t>
+  </si>
+  <si>
+    <t>Socket Head cap screw M3-25L</t>
+  </si>
+  <si>
+    <t>Flat Head M4-45L</t>
+  </si>
+  <si>
+    <t>Pan Head M4-20L</t>
+  </si>
+  <si>
+    <t>Pan Head M3-20L</t>
+  </si>
+  <si>
+    <t>KCD1 Rocker Power Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Switch mounted on front of machine </t>
+  </si>
+  <si>
+    <t>Custom Order</t>
   </si>
 </sst>
 </file>
@@ -394,17 +1054,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E122"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="71.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" customWidth="1"/>
@@ -446,1215 +1106,2035 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="H10" t="s">
-        <v>8</v>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f>A38+1</f>
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f>A40+1</f>
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f>A41+1</f>
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f>A42+1</f>
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f>A43+1</f>
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f>A44+1</f>
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f>A45+1</f>
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f>A46+1</f>
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f>A47+1</f>
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f>A48+1</f>
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f>A49+1</f>
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f>A50+1</f>
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f>A51+1</f>
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f>A52+1</f>
         <v>52</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f>A53+1</f>
         <v>53</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f>A54+1</f>
         <v>54</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f>A55+1</f>
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f>A56+1</f>
         <v>56</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f>A57+1</f>
         <v>57</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f>A58+1</f>
         <v>58</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f>A59+1</f>
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f>A60+1</f>
         <v>60</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f>A61+1</f>
         <v>61</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f>A62+1</f>
         <v>62</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f>A63+1</f>
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f>A64+1</f>
         <v>64</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f>A65+1</f>
         <v>65</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f>A66+1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <f t="shared" ref="A68:A122" si="1">A67+1</f>
+        <f>A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f>A68+1</f>
         <v>68</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f>A69+1</f>
         <v>69</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="B70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f>A70+1</f>
         <v>70</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f>A71+1</f>
         <v>71</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f>A72+1</f>
         <v>72</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f>A73+1</f>
         <v>73</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="B74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <f t="shared" si="1"/>
+        <f>A74+1</f>
         <v>74</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <f t="shared" si="1"/>
+        <f>A75+1</f>
         <v>75</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <f t="shared" si="1"/>
+        <f>A76+1</f>
         <v>76</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f>A77+1</f>
         <v>77</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f>A78+1</f>
         <v>78</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f>A79+1</f>
         <v>79</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f>A80+1</f>
         <v>80</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="B81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f>A81+1</f>
         <v>81</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f>A82+1</f>
         <v>82</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f>A83+1</f>
         <v>83</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f>A84+1</f>
         <v>84</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f>A85+1</f>
         <v>85</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f>A86+1</f>
         <v>86</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="B87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f>A87+1</f>
         <v>87</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="B88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f>A88+1</f>
         <v>88</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f>A89+1</f>
         <v>89</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f>A90+1</f>
         <v>90</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="B91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f>A91+1</f>
         <v>91</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f>A92+1</f>
         <v>92</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="B93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f>A93+1</f>
         <v>93</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f>A94+1</f>
         <v>94</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f>A95+1</f>
         <v>95</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f>A96+1</f>
         <v>96</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f>A97+1</f>
         <v>97</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f>A98+1</f>
         <v>98</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f>A99+1</f>
         <v>99</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f>A100+1</f>
         <v>100</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="B101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+        <f>A102+1</f>
+        <v>111</v>
+      </c>
+      <c r="B103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+        <f>A103+1</f>
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" t="s">
+        <v>142</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+        <f>A104+1</f>
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" t="s">
+        <v>143</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+        <f>A105+1</f>
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+        <f>A106+1</f>
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+        <f>A107+1</f>
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108">
+        <v>12</v>
+      </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+        <f>A108+1</f>
+        <v>117</v>
+      </c>
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+        <f>A109+1</f>
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E110">
+        <v>16</v>
+      </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
+        <f>A110+1</f>
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>146</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
+    <row r="113" spans="2:5">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
+    <row r="114" spans="2:5">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
+    <row r="115" spans="2:5">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
+    <row r="116" spans="2:5">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
+    <row r="117" spans="2:5">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
+    <row r="118" spans="2:5">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
+    <row r="119" spans="2:5">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
   </sheetData>
+  <sortState ref="A2:I111">
+    <sortCondition ref="D2:D111"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
